--- a/Anniv.xlsx
+++ b/Anniv.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CTables\Wartune\Wartune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21556DB1-0B7E-4AD9-9656-48224564811F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC926C0A-F439-47DD-B062-44DEE09C8A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9306" yWindow="4537" windowWidth="19562" windowHeight="14428" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Eternal" sheetId="1" r:id="rId1"/>
-    <sheet name="Returner" sheetId="2" r:id="rId2"/>
+    <sheet name="General" sheetId="3" r:id="rId1"/>
+    <sheet name="Eternal" sheetId="1" r:id="rId2"/>
+    <sheet name="Returner" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="147">
   <si>
     <t>Eudaemon Bounty Targets</t>
   </si>
@@ -119,13 +130,381 @@
   </si>
   <si>
     <t>50 // 30</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>max_cost</t>
+  </si>
+  <si>
+    <t>max_amnt</t>
+  </si>
+  <si>
+    <t>The Eternal Title Card</t>
+  </si>
+  <si>
+    <t>Spirit Covelant (31 days)</t>
+  </si>
+  <si>
+    <t>amnt</t>
+  </si>
+  <si>
+    <t>Advanced Henna</t>
+  </si>
+  <si>
+    <t>Soul Crystal</t>
+  </si>
+  <si>
+    <t>Soul Seal</t>
+  </si>
+  <si>
+    <t>Basic Talent Stone</t>
+  </si>
+  <si>
+    <t>Mount Training Whip</t>
+  </si>
+  <si>
+    <t>Mount Hoof</t>
+  </si>
+  <si>
+    <t>Smelting Stone</t>
+  </si>
+  <si>
+    <t>Prayer Script</t>
+  </si>
+  <si>
+    <t>Terra Seal</t>
+  </si>
+  <si>
+    <t>Dragon's Whisper</t>
+  </si>
+  <si>
+    <t>Resonance Crystal</t>
+  </si>
+  <si>
+    <t>Pennant Ascension Stone</t>
+  </si>
+  <si>
+    <t>Star Crystal</t>
+  </si>
+  <si>
+    <t>Moon Crystal</t>
+  </si>
+  <si>
+    <t>Sun Crystal</t>
+  </si>
+  <si>
+    <t>Vengeful Crystal</t>
+  </si>
+  <si>
+    <t>Wind Steel</t>
+  </si>
+  <si>
+    <t>Light Steel</t>
+  </si>
+  <si>
+    <t>Dark Steel</t>
+  </si>
+  <si>
+    <t>Warpath Steel</t>
+  </si>
+  <si>
+    <t>Warpath Spirit</t>
+  </si>
+  <si>
+    <t>Warpath Darksteel</t>
+  </si>
+  <si>
+    <t>RES Stone of Judgment Chest</t>
+  </si>
+  <si>
+    <t>Red Devil Pearl Chest</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>The Returner Title Card</t>
+  </si>
+  <si>
+    <t>Blood of Zeus</t>
+  </si>
+  <si>
+    <t>Sylph Sepulcrum</t>
+  </si>
+  <si>
+    <t>Mahra</t>
+  </si>
+  <si>
+    <t>Adv. Sepulcrum</t>
+  </si>
+  <si>
+    <t>Adv. Mahra</t>
+  </si>
+  <si>
+    <t>Book of Wisdom</t>
+  </si>
+  <si>
+    <t>Eud RES Reduction Essence</t>
+  </si>
+  <si>
+    <t>Eud RES Essence</t>
+  </si>
+  <si>
+    <t>Eud Warpath Crystal</t>
+  </si>
+  <si>
+    <t>Sylph Soul Orb</t>
+  </si>
+  <si>
+    <t>Cast Stone</t>
+  </si>
+  <si>
+    <t>Essence of Zeus</t>
+  </si>
+  <si>
+    <t>Pennant Engrave Stone</t>
+  </si>
+  <si>
+    <t>Goddess Heart Shard</t>
+  </si>
+  <si>
+    <t>Charm Mace</t>
+  </si>
+  <si>
+    <t>Wave Crystal</t>
+  </si>
+  <si>
+    <t>Small Poseidon Chest</t>
+  </si>
+  <si>
+    <t>Carving Stone</t>
+  </si>
+  <si>
+    <t>Adv Stone of Judgment Chest</t>
+  </si>
+  <si>
+    <t>Vulcan's Bellows</t>
+  </si>
+  <si>
+    <t>Vulcan's Grinding Stone</t>
+  </si>
+  <si>
+    <t>Water Steel</t>
+  </si>
+  <si>
+    <t>Fire Steel</t>
+  </si>
+  <si>
+    <t>Electro Steel</t>
+  </si>
+  <si>
+    <t>Good stuff</t>
+  </si>
+  <si>
+    <t>Total reward points</t>
+  </si>
+  <si>
+    <t>Total reward points (14 days)</t>
+  </si>
+  <si>
+    <t>Total pts in stuff not bought:</t>
+  </si>
+  <si>
+    <t>Points grinded:</t>
+  </si>
+  <si>
+    <t>Points left after Anniv 12:</t>
+  </si>
+  <si>
+    <t>Enter/exit game 7 times</t>
+  </si>
+  <si>
+    <t>Blitz cata, necro or purgatory</t>
+  </si>
+  <si>
+    <t>Long grind</t>
+  </si>
+  <si>
+    <t>Streak from 1 to 9 manually</t>
+  </si>
+  <si>
+    <t>Enter/exit with 5 min cd</t>
+  </si>
+  <si>
+    <t>Have base camp lvl 9 or 10</t>
+  </si>
+  <si>
+    <t>Do green chests</t>
+  </si>
+  <si>
+    <t>Just kill 15</t>
+  </si>
+  <si>
+    <t>BGC boss kills only</t>
+  </si>
+  <si>
+    <t>Open pm window, spam add/rem</t>
+  </si>
+  <si>
+    <t>Rapid completion strategy</t>
+  </si>
+  <si>
+    <t>Mega-Divine Quest grind</t>
+  </si>
+  <si>
+    <t>Only do 5 (or 15)</t>
+  </si>
+  <si>
+    <t>Blitz 9 "per"</t>
+  </si>
+  <si>
+    <t>No restriction</t>
+  </si>
+  <si>
+    <t>Max 2, unless inf Eternals</t>
+  </si>
+  <si>
+    <t>Do 1 kill "per", max 15</t>
+  </si>
+  <si>
+    <t>Try to do 5 per BG</t>
+  </si>
+  <si>
+    <t>Do 1 "per", max 9</t>
+  </si>
+  <si>
+    <t>Do greens with 1h cd, max 8</t>
+  </si>
+  <si>
+    <t>Plan up to 3 Eternals in 1h, 2h cd</t>
+  </si>
+  <si>
+    <t>Restricted by friend list limitation</t>
+  </si>
+  <si>
+    <t>No speed up</t>
+  </si>
+  <si>
+    <t>Max 1 "per"</t>
+  </si>
+  <si>
+    <t>Do 100 energy "per"</t>
+  </si>
+  <si>
+    <t>No speed up, unless energy RNG</t>
+  </si>
+  <si>
+    <t>Total reward points (3x14 days)</t>
+  </si>
+  <si>
+    <t>Have 3 Returner alts prepared</t>
+  </si>
+  <si>
+    <t>Long grind: Each returner adds kills</t>
+  </si>
+  <si>
+    <t>Max points obtainable / event</t>
+  </si>
+  <si>
+    <t>Returner daily tasks</t>
+  </si>
+  <si>
+    <t>- Milestone (free): 7 water steel, 7 fire steel, 7 electro steel, 7 wind steel, 5 light steel</t>
+  </si>
+  <si>
+    <t>- Lots of free greenies pack and free Theseus iron ores</t>
+  </si>
+  <si>
+    <t>Forgot to take screenshots, so this is only from memory…</t>
+  </si>
+  <si>
+    <t>- Returner Quest: Lots of daily bound balens</t>
+  </si>
+  <si>
+    <t>- Returner Quest: 1 red devil pearl chest a day</t>
+  </si>
+  <si>
+    <t>- 1 lvl 2 Goddess Scroll and 9 lvl 1 Goddess Scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts at August 22th; Event duration = 14 days; Shop stays open for 7 more days after; </t>
+  </si>
+  <si>
+    <t>Requires lvl 80 or higher, although it may be bugged to show up for lower. (Wouldn't bet on it)</t>
+  </si>
+  <si>
+    <t>Can only be accessed after forming an alliance, consisting: 1 Eternal and (up to) 3 Returner(s)</t>
+  </si>
+  <si>
+    <t>Eternal = Character has been online within the 14 days prior to the event's launch</t>
+  </si>
+  <si>
+    <t>Returner = Character was offline for &gt;=14 days, or has been created within the event's duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance lvl maxes at 9 with 3K EXP; Alliance EXP = sum of total EXP from Eternal and Returner; </t>
+  </si>
+  <si>
+    <t>Eternal can't get multiple alliance lvl rewards, bonus don't stack; Returner with highest EXP counts</t>
+  </si>
+  <si>
+    <t>Event has been recurring yearly since Wartune's 10th anniversary</t>
+  </si>
+  <si>
+    <t>Exhausting attempts of daily activities prior to the maintenance that launches the event = Wasted</t>
+  </si>
+  <si>
+    <t>The unit that cancels an alliance bond receives a 48h (re)alliance cooldown as penalty</t>
+  </si>
+  <si>
+    <t>Upon alliance cancelation, all accumulated ally quest EXP is lost. Divine Quest EXP is kept</t>
+  </si>
+  <si>
+    <t>Only "pro" of Eternal = 5x Dark Steel in shop, is inferior to Returner in every single other aspect</t>
+  </si>
+  <si>
+    <t>The power gap |Eternal - Returner| alone, already (far) surpasses 14 days of full-time Wartune</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(being the inferior one)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Eternal vs non-Anniversary event is yet another &gt;14 days of full-time</t>
+    </r>
+  </si>
+  <si>
+    <t>Conclusion: 100% of the entire player base should be Returner (use disposable alts as Eternal)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +526,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +548,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,16 +563,190 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,312 +1095,1287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6400203-2BDE-4802-8A79-E79C2E94A689}">
+  <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="2:10" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="2:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="2:10" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="42.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="H1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="H2" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="H3" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="H4" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="H5" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="H6" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="H7" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="H8" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>2500</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="H9" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="H10" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="H11" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="H12" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="H13" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="H14" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="H15" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3">
+        <f>14*(10+50+100)</f>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="7">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="7">
         <v>10</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="13">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="14">
         <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="1">
+        <f>14*3*30</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C16+C22</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7">
+        <f>C26*E26</f>
+        <v>100</v>
+      </c>
+      <c r="G26" s="11">
+        <f>C26*D26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>100</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" ref="F27:F51" si="0">C27*E27</f>
+        <v>100</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" ref="G27:G51" si="1">C27*D27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D28" s="7">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D29" s="7">
+        <v>40</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1250</v>
+      </c>
+      <c r="D30" s="7">
+        <v>20</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="7">
+        <v>25</v>
+      </c>
+      <c r="D31" s="7">
+        <v>20</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="7">
+        <v>20</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="7">
+        <v>250</v>
+      </c>
+      <c r="D33" s="7">
+        <v>10</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="7">
+        <v>250</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="7">
+        <v>50</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7">
+        <v>5</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="7">
+        <v>50</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7">
+        <v>5</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>25</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="7">
+        <v>25</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="7">
+        <v>50</v>
+      </c>
+      <c r="D39" s="7">
+        <v>4</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="7">
+        <v>100</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <v>5</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="7">
+        <v>50</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>7</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="7">
+        <v>25</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="7">
+        <v>250</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2</v>
+      </c>
+      <c r="E44" s="7">
+        <v>200</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="7">
+        <v>5</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7">
+        <v>20</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="7">
+        <v>5</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7">
+        <v>30</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="7">
+        <v>5</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
+        <v>40</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="7">
+        <v>5</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7">
+        <v>50</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="7">
+        <v>500</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="7">
+        <v>500</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="13">
+        <v>500</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G51" s="14">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="1">
+        <f>SUM(F26:F51)</f>
+        <v>14100</v>
       </c>
     </row>
   </sheetData>
@@ -845,318 +2387,1570 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A099BD42-EDC1-43FC-957F-85D4BF1921DE}">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="H1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="H2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="H3" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="H4" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="H5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>75</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="H6" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="H7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="H8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="H9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="H10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="H11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="H12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="H13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="H14" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="13">
         <v>2500</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="H15" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3">
+        <f>14*(50+100+200)</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="H18" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="7">
         <v>20</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="H19" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="7">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="H20" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="13">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="14">
         <v>25</v>
       </c>
+      <c r="H21" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1">
+        <f>14*60</f>
+        <v>840</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C16+C22</f>
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7">
+        <f>C26*E26</f>
+        <v>100</v>
+      </c>
+      <c r="G26" s="11">
+        <f>C26*D26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>100</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" ref="F27:F72" si="0">C27*E27</f>
+        <v>100</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" ref="G27:G72" si="1">C27*D27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D28" s="7">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D29" s="7">
+        <v>20</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D30" s="7">
+        <v>20</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D31" s="7">
+        <v>10</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="17">
+        <v>2500</v>
+      </c>
+      <c r="D33" s="17">
+        <v>20</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G33" s="18">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="7">
+        <v>250</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="7">
+        <v>100</v>
+      </c>
+      <c r="D35" s="7">
+        <v>6</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="7">
+        <v>100</v>
+      </c>
+      <c r="D36" s="7">
+        <v>6</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D37" s="7">
+        <v>20</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D38" s="7">
+        <v>40</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1250</v>
+      </c>
+      <c r="D39" s="7">
+        <v>20</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="7">
+        <v>25</v>
+      </c>
+      <c r="D40" s="7">
+        <v>20</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="7">
+        <v>20</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="7">
+        <v>250</v>
+      </c>
+      <c r="D42" s="7">
+        <v>10</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="17">
+        <v>250</v>
+      </c>
+      <c r="D43" s="17">
+        <v>4</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G43" s="18">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="17">
+        <v>50</v>
+      </c>
+      <c r="D44" s="17">
+        <v>4</v>
+      </c>
+      <c r="E44" s="17">
+        <v>5</v>
+      </c>
+      <c r="F44" s="17">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G44" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="7">
+        <v>50</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7">
+        <v>5</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2</v>
+      </c>
+      <c r="D46" s="17">
+        <v>2</v>
+      </c>
+      <c r="E46" s="17">
+        <v>25</v>
+      </c>
+      <c r="F46" s="17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G46" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="17">
+        <v>25</v>
+      </c>
+      <c r="D47" s="17">
+        <v>2</v>
+      </c>
+      <c r="E47" s="17">
+        <v>5</v>
+      </c>
+      <c r="F47" s="17">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="G47" s="18">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="17">
+        <v>50</v>
+      </c>
+      <c r="D48" s="17">
+        <v>4</v>
+      </c>
+      <c r="E48" s="17">
+        <v>5</v>
+      </c>
+      <c r="F48" s="17">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G48" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="17">
+        <v>100</v>
+      </c>
+      <c r="D49" s="17">
+        <v>1</v>
+      </c>
+      <c r="E49" s="17">
+        <v>5</v>
+      </c>
+      <c r="F49" s="17">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G49" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="17">
+        <v>50</v>
+      </c>
+      <c r="D50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" s="17">
+        <v>7</v>
+      </c>
+      <c r="F50" s="17">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G50" s="18">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="17">
+        <v>25</v>
+      </c>
+      <c r="D51" s="17">
+        <v>1</v>
+      </c>
+      <c r="E51" s="17">
+        <v>10</v>
+      </c>
+      <c r="F51" s="17">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G51" s="18">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="7">
+        <v>200</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="7">
+        <v>200</v>
+      </c>
+      <c r="D53" s="7">
+        <v>3</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="7">
+        <v>200</v>
+      </c>
+      <c r="D54" s="7">
+        <v>3</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="7">
+        <v>200</v>
+      </c>
+      <c r="D55" s="7">
+        <v>3</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="7">
+        <v>200</v>
+      </c>
+      <c r="D56" s="7">
+        <v>10</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="7">
+        <v>200</v>
+      </c>
+      <c r="D57" s="7">
+        <v>4</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="7">
+        <v>200</v>
+      </c>
+      <c r="D58" s="7">
+        <v>6</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="17">
+        <v>5</v>
+      </c>
+      <c r="D59" s="17">
+        <v>2</v>
+      </c>
+      <c r="E59" s="17">
+        <v>5</v>
+      </c>
+      <c r="F59" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G59" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="17">
+        <v>500</v>
+      </c>
+      <c r="D60" s="17">
+        <v>1</v>
+      </c>
+      <c r="E60" s="17">
+        <v>1</v>
+      </c>
+      <c r="F60" s="17">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G60" s="18">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="17">
+        <v>500</v>
+      </c>
+      <c r="D61" s="17">
+        <v>1</v>
+      </c>
+      <c r="E61" s="17">
+        <v>1</v>
+      </c>
+      <c r="F61" s="17">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G61" s="18">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="17">
+        <v>500</v>
+      </c>
+      <c r="D62" s="17">
+        <v>1</v>
+      </c>
+      <c r="E62" s="17">
+        <v>1</v>
+      </c>
+      <c r="F62" s="17">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G62" s="18">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="7">
+        <v>500</v>
+      </c>
+      <c r="D63" s="7">
+        <v>4</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G63" s="11">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="7">
+        <v>250</v>
+      </c>
+      <c r="D64" s="7">
+        <v>2</v>
+      </c>
+      <c r="E64" s="7">
+        <v>2</v>
+      </c>
+      <c r="F64" s="7">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="7">
+        <v>2</v>
+      </c>
+      <c r="D65" s="7">
+        <v>2</v>
+      </c>
+      <c r="E65" s="7">
+        <v>200</v>
+      </c>
+      <c r="F65" s="7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="G65" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="7">
+        <v>5</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7">
+        <v>20</v>
+      </c>
+      <c r="F66" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G66" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="7">
+        <v>40</v>
+      </c>
+      <c r="D67" s="7">
+        <v>5</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1</v>
+      </c>
+      <c r="F67" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G67" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="17">
+        <v>200</v>
+      </c>
+      <c r="D68" s="17">
+        <v>4</v>
+      </c>
+      <c r="E68" s="17">
+        <v>1</v>
+      </c>
+      <c r="F68" s="17">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G68" s="18">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="17">
+        <v>200</v>
+      </c>
+      <c r="D69" s="17">
+        <v>4</v>
+      </c>
+      <c r="E69" s="17">
+        <v>1</v>
+      </c>
+      <c r="F69" s="17">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G69" s="18">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="7">
+        <v>5</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7">
+        <v>15</v>
+      </c>
+      <c r="F70" s="7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G70" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="17">
+        <v>5</v>
+      </c>
+      <c r="D71" s="17">
+        <v>1</v>
+      </c>
+      <c r="E71" s="17">
+        <v>20</v>
+      </c>
+      <c r="F71" s="17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G71" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="20">
+        <v>5</v>
+      </c>
+      <c r="D72" s="20">
+        <v>1</v>
+      </c>
+      <c r="E72" s="20">
+        <v>25</v>
+      </c>
+      <c r="F72" s="20">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="G72" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="1">
+        <f>SUM(F26:F72)</f>
+        <v>31615</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E74" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="26">
+        <f>SUM(F27,F33,F60,F61,F62,F71,F72,F44,F46,F47,F48,F59,F51,F68,F69,F43,F50,F49)</f>
+        <v>6775</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="27">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="29">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="31">
+        <f>F73+C77-C76</f>
+        <v>34270</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Anniv.xlsx
+++ b/Anniv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CTables\Wartune\Wartune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC926C0A-F439-47DD-B062-44DEE09C8A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1844DFBA-3A0F-4EA1-9AA7-AE9276A070B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="148">
   <si>
     <t>Eudaemon Bounty Targets</t>
   </si>
@@ -499,12 +499,15 @@
   <si>
     <t>Conclusion: 100% of the entire player base should be Returner (use disposable alts as Eternal)</t>
   </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +533,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -647,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -690,18 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -710,15 +707,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -739,6 +727,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -748,11 +748,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1099,7 +1148,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1109,43 +1158,43 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="2:10" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
@@ -1159,56 +1208,56 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="2:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
@@ -1222,155 +1271,157 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="2:10" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B3:J3"/>
@@ -1383,8 +1434,6 @@
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1392,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I52"/>
+  <dimension ref="B1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1414,11 +1463,11 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
       <c r="H1" s="23" t="s">
         <v>105</v>
       </c>
@@ -1787,14 +1836,14 @@
       <c r="D25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -1807,38 +1856,38 @@
       <c r="D26" s="7">
         <v>1</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="11">
+        <f>C26*D26</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
         <v>100</v>
       </c>
-      <c r="F26" s="7">
-        <f>C26*E26</f>
+      <c r="G26" s="7">
+        <f>C26*F26</f>
         <v>100</v>
       </c>
-      <c r="G26" s="11">
-        <f>C26*D26</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <f>C27*D27</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="17">
         <v>100</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" ref="F27:F51" si="0">C27*E27</f>
+      <c r="G27" s="17">
+        <f>C27*F27</f>
         <v>100</v>
-      </c>
-      <c r="G27" s="11">
-        <f t="shared" ref="G27:G51" si="1">C27*D27</f>
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -1851,16 +1900,16 @@
       <c r="D28" s="7">
         <v>20</v>
       </c>
-      <c r="E28" s="7">
-        <v>1</v>
+      <c r="E28" s="11">
+        <f>C28*D28</f>
+        <v>50000</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <f>C28*F28</f>
         <v>2500</v>
-      </c>
-      <c r="G28" s="11">
-        <f t="shared" si="1"/>
-        <v>50000</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1873,16 +1922,16 @@
       <c r="D29" s="7">
         <v>40</v>
       </c>
-      <c r="E29" s="7">
-        <v>1</v>
+      <c r="E29" s="11">
+        <f>C29*D29</f>
+        <v>100000</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <f>C29*F29</f>
         <v>2500</v>
-      </c>
-      <c r="G29" s="11">
-        <f t="shared" si="1"/>
-        <v>100000</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1895,16 +1944,16 @@
       <c r="D30" s="7">
         <v>20</v>
       </c>
-      <c r="E30" s="7">
-        <v>1</v>
+      <c r="E30" s="11">
+        <f>C30*D30</f>
+        <v>25000</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <f>C30*F30</f>
         <v>1250</v>
-      </c>
-      <c r="G30" s="11">
-        <f t="shared" si="1"/>
-        <v>25000</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1917,16 +1966,16 @@
       <c r="D31" s="7">
         <v>20</v>
       </c>
-      <c r="E31" s="7">
-        <v>1</v>
+      <c r="E31" s="11">
+        <f>C31*D31</f>
+        <v>500</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <f>C31*F31</f>
         <v>25</v>
-      </c>
-      <c r="G31" s="11">
-        <f t="shared" si="1"/>
-        <v>500</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -1939,16 +1988,16 @@
       <c r="D32" s="7">
         <v>20</v>
       </c>
-      <c r="E32" s="7">
-        <v>1</v>
+      <c r="E32" s="11">
+        <f>C32*D32</f>
+        <v>40000</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <f>C32*F32</f>
         <v>2000</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" si="1"/>
-        <v>40000</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -1961,16 +2010,16 @@
       <c r="D33" s="7">
         <v>10</v>
       </c>
-      <c r="E33" s="7">
-        <v>1</v>
+      <c r="E33" s="11">
+        <f>C33*D33</f>
+        <v>2500</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <f>C33*F33</f>
         <v>250</v>
-      </c>
-      <c r="G33" s="11">
-        <f t="shared" si="1"/>
-        <v>2500</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1983,38 +2032,38 @@
       <c r="D34" s="7">
         <v>4</v>
       </c>
-      <c r="E34" s="7">
-        <v>1</v>
+      <c r="E34" s="11">
+        <f>C34*D34</f>
+        <v>1000</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <f>C34*F34</f>
         <v>250</v>
       </c>
-      <c r="G34" s="11">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="17">
         <v>50</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="17">
         <v>4</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="18">
+        <f>C35*D35</f>
+        <v>200</v>
+      </c>
+      <c r="F35" s="17">
         <v>5</v>
       </c>
-      <c r="F35" s="7">
-        <f t="shared" si="0"/>
+      <c r="G35" s="17">
+        <f>C35*F35</f>
         <v>250</v>
-      </c>
-      <c r="G35" s="11">
-        <f t="shared" si="1"/>
-        <v>200</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -2027,82 +2076,82 @@
       <c r="D36" s="7">
         <v>2</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="11">
+        <f>C36*D36</f>
+        <v>100</v>
+      </c>
+      <c r="F36" s="7">
         <v>5</v>
       </c>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
+      <c r="G36" s="7">
+        <f>C36*F36</f>
         <v>250</v>
       </c>
-      <c r="G36" s="11">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="17">
         <v>2</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="17">
         <v>2</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="18">
+        <f>C37*D37</f>
+        <v>4</v>
+      </c>
+      <c r="F37" s="17">
         <v>25</v>
       </c>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
+      <c r="G37" s="17">
+        <f>C37*F37</f>
         <v>50</v>
       </c>
-      <c r="G37" s="11">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="17">
+        <v>25</v>
+      </c>
+      <c r="D38" s="17">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18">
+        <f>C38*D38</f>
+        <v>50</v>
+      </c>
+      <c r="F38" s="17">
+        <v>5</v>
+      </c>
+      <c r="G38" s="17">
+        <f>C38*F38</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="17">
+        <v>50</v>
+      </c>
+      <c r="D39" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="7">
-        <v>25</v>
-      </c>
-      <c r="D38" s="7">
-        <v>2</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="E39" s="18">
+        <f>C39*D39</f>
+        <v>200</v>
+      </c>
+      <c r="F39" s="17">
         <v>5</v>
       </c>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="G38" s="11">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="7">
-        <v>50</v>
-      </c>
-      <c r="D39" s="7">
-        <v>4</v>
-      </c>
-      <c r="E39" s="7">
-        <v>5</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
+      <c r="G39" s="17">
+        <f>C39*F39</f>
         <v>250</v>
-      </c>
-      <c r="G39" s="11">
-        <f t="shared" si="1"/>
-        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -2115,60 +2164,60 @@
       <c r="D40" s="7">
         <v>1</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="11">
+        <f>C40*D40</f>
+        <v>100</v>
+      </c>
+      <c r="F40" s="7">
         <v>5</v>
       </c>
-      <c r="F40" s="7">
-        <f t="shared" si="0"/>
+      <c r="G40" s="7">
+        <f>C40*F40</f>
         <v>500</v>
       </c>
-      <c r="G40" s="11">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="17">
         <v>50</v>
       </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18">
+        <f>C41*D41</f>
+        <v>50</v>
+      </c>
+      <c r="F41" s="17">
         <v>7</v>
       </c>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
+      <c r="G41" s="17">
+        <f>C41*F41</f>
         <v>350</v>
       </c>
-      <c r="G41" s="11">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="17">
         <v>25</v>
       </c>
-      <c r="D42" s="7">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="18">
+        <f>C42*D42</f>
+        <v>25</v>
+      </c>
+      <c r="F42" s="17">
         <v>10</v>
       </c>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
+      <c r="G42" s="17">
+        <f>C42*F42</f>
         <v>250</v>
-      </c>
-      <c r="G42" s="11">
-        <f t="shared" si="1"/>
-        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -2181,201 +2230,210 @@
       <c r="D43" s="7">
         <v>2</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="11">
+        <f>C43*D43</f>
+        <v>500</v>
+      </c>
+      <c r="F43" s="7">
         <v>2</v>
       </c>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
+      <c r="G43" s="7">
+        <f>C43*F43</f>
         <v>500</v>
       </c>
-      <c r="G43" s="11">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="17">
+        <v>2</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2</v>
+      </c>
+      <c r="E44" s="18">
+        <f>C44*D44</f>
+        <v>4</v>
+      </c>
+      <c r="F44" s="17">
+        <v>200</v>
+      </c>
+      <c r="G44" s="17">
+        <f>C44*F44</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="17">
+        <v>5</v>
+      </c>
+      <c r="D45" s="17">
+        <v>1</v>
+      </c>
+      <c r="E45" s="18">
+        <f>C45*D45</f>
+        <v>5</v>
+      </c>
+      <c r="F45" s="17">
+        <v>20</v>
+      </c>
+      <c r="G45" s="17">
+        <f>C45*F45</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="17">
+        <v>5</v>
+      </c>
+      <c r="D46" s="17">
+        <v>1</v>
+      </c>
+      <c r="E46" s="18">
+        <f>C46*D46</f>
+        <v>5</v>
+      </c>
+      <c r="F46" s="17">
+        <v>30</v>
+      </c>
+      <c r="G46" s="17">
+        <f>C46*F46</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="17">
+        <v>5</v>
+      </c>
+      <c r="D47" s="17">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18">
+        <f>C47*D47</f>
+        <v>5</v>
+      </c>
+      <c r="F47" s="17">
+        <v>40</v>
+      </c>
+      <c r="G47" s="17">
+        <f>C47*F47</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="17">
+        <v>5</v>
+      </c>
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="E48" s="18">
+        <f>C48*D48</f>
+        <v>5</v>
+      </c>
+      <c r="F48" s="17">
+        <v>50</v>
+      </c>
+      <c r="G48" s="17">
+        <f>C48*F48</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="17">
         <v>500</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="7">
-        <v>2</v>
-      </c>
-      <c r="D44" s="7">
-        <v>2</v>
-      </c>
-      <c r="E44" s="7">
-        <v>200</v>
-      </c>
-      <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="G44" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="7">
-        <v>5</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7">
-        <v>20</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G45" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="7">
-        <v>5</v>
-      </c>
-      <c r="D46" s="7">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7">
-        <v>30</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="G46" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="7">
-        <v>5</v>
-      </c>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7">
-        <v>40</v>
-      </c>
-      <c r="F47" s="7">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G47" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="7">
-        <v>5</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
-        <v>50</v>
-      </c>
-      <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="G48" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="7">
+      <c r="D49" s="17">
+        <v>1</v>
+      </c>
+      <c r="E49" s="18">
+        <f>C49*D49</f>
         <v>500</v>
       </c>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7">
-        <v>1</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" si="0"/>
+      <c r="F49" s="17">
+        <v>1</v>
+      </c>
+      <c r="G49" s="17">
+        <f>C49*F49</f>
         <v>500</v>
       </c>
-      <c r="G49" s="11">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="17">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="7">
+      <c r="D50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" s="18">
+        <f>C50*D50</f>
         <v>500</v>
       </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
-      <c r="F50" s="7">
-        <f t="shared" si="0"/>
+      <c r="F50" s="17">
+        <v>1</v>
+      </c>
+      <c r="G50" s="17">
+        <f>C50*F50</f>
         <v>500</v>
       </c>
-      <c r="G50" s="11">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="51" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="20">
         <v>500</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="13">
+      <c r="D51" s="20">
+        <v>1</v>
+      </c>
+      <c r="E51" s="21">
+        <f>C51*D51</f>
         <v>500</v>
       </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-      <c r="E51" s="13">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13">
-        <f t="shared" si="0"/>
+      <c r="F51" s="20">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20">
+        <f>C51*F51</f>
         <v>500</v>
       </c>
-      <c r="G51" s="14">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="1">
-        <f>SUM(F26:F51)</f>
+      <c r="G52" s="1">
+        <f>SUM(G26:G51)</f>
         <v>14100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="26">
+        <f>SUM(G27,G46,G47,G48,G50,G49,G51,G44,G37,G38,G39,G35,G45,G42,G41)</f>
+        <v>3975</v>
       </c>
     </row>
   </sheetData>
@@ -2389,41 +2447,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A099BD42-EDC1-43FC-957F-85D4BF1921DE}">
-  <dimension ref="B1:I78"/>
+  <dimension ref="B1:J78"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="30.625" customWidth="1"/>
-    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="4" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="30.625" customWidth="1"/>
+    <col min="10" max="10" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="H1" s="23" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="I1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2439,14 +2497,14 @@
       <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2462,14 +2520,14 @@
       <c r="F3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="I3" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
@@ -2485,14 +2543,14 @@
       <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -2508,14 +2566,14 @@
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="I5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
@@ -2531,14 +2589,14 @@
       <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="I6" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="J6" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2554,14 +2612,14 @@
       <c r="F7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="I7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="J7" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -2577,14 +2635,14 @@
       <c r="F8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="I8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="J8" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>0</v>
       </c>
@@ -2600,14 +2658,14 @@
       <c r="F9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="I9" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="J9" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
@@ -2623,14 +2681,14 @@
       <c r="F10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="J10" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
@@ -2646,14 +2704,14 @@
       <c r="F11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="I11" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="J11" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
@@ -2669,14 +2727,14 @@
       <c r="F12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="I12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="J12" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2692,14 +2750,14 @@
       <c r="F13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="I13" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="J13" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
@@ -2715,14 +2773,14 @@
       <c r="F14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="I14" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="J14" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
@@ -2738,14 +2796,14 @@
       <c r="F15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="I15" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="J15" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>90</v>
       </c>
@@ -2754,15 +2812,15 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" t="s">
+    <row r="17" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
         <v>125</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
@@ -2772,12 +2830,12 @@
       <c r="D18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="I18" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
@@ -2787,12 +2845,12 @@
       <c r="D19" s="11">
         <v>10</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="I19" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="47"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
@@ -2802,12 +2860,12 @@
       <c r="D20" s="11">
         <v>15</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="I20" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>18</v>
       </c>
@@ -2817,12 +2875,12 @@
       <c r="D21" s="14">
         <v>25</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="I21" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
@@ -2830,12 +2888,12 @@
         <f>14*60</f>
         <v>840</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="I22" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>124</v>
       </c>
@@ -2844,8 +2902,8 @@
         <v>5740</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -2855,17 +2913,20 @@
       <c r="D25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>64</v>
       </c>
@@ -2875,19 +2936,22 @@
       <c r="D26" s="7">
         <v>1</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="11">
+        <f>C26*D26</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
         <v>100</v>
       </c>
-      <c r="F26" s="7">
-        <f>C26*E26</f>
+      <c r="G26" s="7">
+        <f>C26*F26</f>
         <v>100</v>
       </c>
-      <c r="G26" s="11">
-        <f>C26*D26</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>37</v>
       </c>
@@ -2897,19 +2961,22 @@
       <c r="D27" s="17">
         <v>1</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="18">
+        <f>C27*D27</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="17">
         <v>100</v>
       </c>
-      <c r="F27" s="17">
-        <f t="shared" ref="F27:F72" si="0">C27*E27</f>
+      <c r="G27" s="17">
+        <f>C27*F27</f>
         <v>100</v>
       </c>
-      <c r="G27" s="18">
-        <f t="shared" ref="G27:G72" si="1">C27*D27</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>65</v>
       </c>
@@ -2919,19 +2986,22 @@
       <c r="D28" s="7">
         <v>20</v>
       </c>
-      <c r="E28" s="7">
-        <v>1</v>
+      <c r="E28" s="11">
+        <f>C28*D28</f>
+        <v>50000</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <f>C28*F28</f>
         <v>2500</v>
       </c>
-      <c r="G28" s="11">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>66</v>
       </c>
@@ -2941,19 +3011,22 @@
       <c r="D29" s="7">
         <v>20</v>
       </c>
-      <c r="E29" s="7">
-        <v>1</v>
+      <c r="E29" s="11">
+        <f>C29*D29</f>
+        <v>50000</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <f>C29*F29</f>
         <v>2500</v>
       </c>
-      <c r="G29" s="11">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>67</v>
       </c>
@@ -2963,19 +3036,22 @@
       <c r="D30" s="7">
         <v>20</v>
       </c>
-      <c r="E30" s="7">
-        <v>1</v>
+      <c r="E30" s="11">
+        <f>C30*D30</f>
+        <v>50000</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <f>C30*F30</f>
         <v>2500</v>
       </c>
-      <c r="G30" s="11">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>68</v>
       </c>
@@ -2985,19 +3061,22 @@
       <c r="D31" s="7">
         <v>10</v>
       </c>
-      <c r="E31" s="7">
-        <v>1</v>
+      <c r="E31" s="11">
+        <f>C31*D31</f>
+        <v>25000</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <f>C31*F31</f>
         <v>2500</v>
       </c>
-      <c r="G31" s="11">
-        <f t="shared" si="1"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>69</v>
       </c>
@@ -3007,19 +3086,22 @@
       <c r="D32" s="7">
         <v>10</v>
       </c>
-      <c r="E32" s="7">
-        <v>1</v>
+      <c r="E32" s="11">
+        <f>C32*D32</f>
+        <v>25000</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <f>C32*F32</f>
         <v>2500</v>
       </c>
-      <c r="G32" s="11">
-        <f t="shared" si="1"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>70</v>
       </c>
@@ -3029,19 +3111,22 @@
       <c r="D33" s="17">
         <v>20</v>
       </c>
-      <c r="E33" s="17">
-        <v>1</v>
+      <c r="E33" s="18">
+        <f>C33*D33</f>
+        <v>50000</v>
       </c>
       <c r="F33" s="17">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="17">
+        <f>C33*F33</f>
         <v>2500</v>
       </c>
-      <c r="G33" s="18">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>71</v>
       </c>
@@ -3051,19 +3136,22 @@
       <c r="D34" s="7">
         <v>2</v>
       </c>
-      <c r="E34" s="7">
-        <v>1</v>
+      <c r="E34" s="11">
+        <f>C34*D34</f>
+        <v>500</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <f>C34*F34</f>
         <v>250</v>
       </c>
-      <c r="G34" s="11">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>72</v>
       </c>
@@ -3073,19 +3161,22 @@
       <c r="D35" s="7">
         <v>6</v>
       </c>
-      <c r="E35" s="7">
-        <v>1</v>
+      <c r="E35" s="11">
+        <f>C35*D35</f>
+        <v>600</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
+        <f>C35*F35</f>
         <v>100</v>
       </c>
-      <c r="G35" s="11">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>73</v>
       </c>
@@ -3095,19 +3186,22 @@
       <c r="D36" s="7">
         <v>6</v>
       </c>
-      <c r="E36" s="7">
-        <v>1</v>
+      <c r="E36" s="11">
+        <f>C36*D36</f>
+        <v>600</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <f>C36*F36</f>
         <v>100</v>
       </c>
-      <c r="G36" s="11">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>39</v>
       </c>
@@ -3117,19 +3211,22 @@
       <c r="D37" s="7">
         <v>20</v>
       </c>
-      <c r="E37" s="7">
-        <v>1</v>
+      <c r="E37" s="11">
+        <f>C37*D37</f>
+        <v>50000</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="7">
+        <f>C37*F37</f>
         <v>2500</v>
       </c>
-      <c r="G37" s="11">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>40</v>
       </c>
@@ -3139,19 +3236,22 @@
       <c r="D38" s="7">
         <v>40</v>
       </c>
-      <c r="E38" s="7">
-        <v>1</v>
+      <c r="E38" s="11">
+        <f>C38*D38</f>
+        <v>100000</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
+        <f>C38*F38</f>
         <v>2500</v>
       </c>
-      <c r="G38" s="11">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>41</v>
       </c>
@@ -3161,19 +3261,22 @@
       <c r="D39" s="7">
         <v>20</v>
       </c>
-      <c r="E39" s="7">
-        <v>1</v>
+      <c r="E39" s="11">
+        <f>C39*D39</f>
+        <v>25000</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
+        <f>C39*F39</f>
         <v>1250</v>
       </c>
-      <c r="G39" s="11">
-        <f t="shared" si="1"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>42</v>
       </c>
@@ -3183,19 +3286,22 @@
       <c r="D40" s="7">
         <v>20</v>
       </c>
-      <c r="E40" s="7">
-        <v>1</v>
+      <c r="E40" s="11">
+        <f>C40*D40</f>
+        <v>500</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <f>C40*F40</f>
         <v>25</v>
       </c>
-      <c r="G40" s="11">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>43</v>
       </c>
@@ -3205,19 +3311,22 @@
       <c r="D41" s="7">
         <v>20</v>
       </c>
-      <c r="E41" s="7">
-        <v>1</v>
+      <c r="E41" s="11">
+        <f>C41*D41</f>
+        <v>40000</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="7">
+        <f>C41*F41</f>
         <v>2000</v>
       </c>
-      <c r="G41" s="11">
-        <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>44</v>
       </c>
@@ -3227,19 +3336,22 @@
       <c r="D42" s="7">
         <v>10</v>
       </c>
-      <c r="E42" s="7">
-        <v>1</v>
+      <c r="E42" s="11">
+        <f>C42*D42</f>
+        <v>2500</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
+        <f>C42*F42</f>
         <v>250</v>
       </c>
-      <c r="G42" s="11">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>45</v>
       </c>
@@ -3249,19 +3361,22 @@
       <c r="D43" s="17">
         <v>4</v>
       </c>
-      <c r="E43" s="17">
-        <v>1</v>
+      <c r="E43" s="18">
+        <f>C43*D43</f>
+        <v>1000</v>
       </c>
       <c r="F43" s="17">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="17">
+        <f>C43*F43</f>
         <v>250</v>
       </c>
-      <c r="G43" s="18">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>46</v>
       </c>
@@ -3271,19 +3386,22 @@
       <c r="D44" s="17">
         <v>4</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="18">
+        <f>C44*D44</f>
+        <v>200</v>
+      </c>
+      <c r="F44" s="17">
         <v>5</v>
       </c>
-      <c r="F44" s="17">
-        <f t="shared" si="0"/>
+      <c r="G44" s="17">
+        <f>C44*F44</f>
         <v>250</v>
       </c>
-      <c r="G44" s="18">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>47</v>
       </c>
@@ -3293,19 +3411,22 @@
       <c r="D45" s="7">
         <v>2</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="11">
+        <f>C45*D45</f>
+        <v>100</v>
+      </c>
+      <c r="F45" s="7">
         <v>5</v>
       </c>
-      <c r="F45" s="7">
-        <f t="shared" si="0"/>
+      <c r="G45" s="7">
+        <f>C45*F45</f>
         <v>250</v>
       </c>
-      <c r="G45" s="11">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>48</v>
       </c>
@@ -3315,19 +3436,22 @@
       <c r="D46" s="17">
         <v>2</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="18">
+        <f>C46*D46</f>
+        <v>4</v>
+      </c>
+      <c r="F46" s="17">
         <v>25</v>
       </c>
-      <c r="F46" s="17">
-        <f t="shared" si="0"/>
+      <c r="G46" s="17">
+        <f>C46*F46</f>
         <v>50</v>
       </c>
-      <c r="G46" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>49</v>
       </c>
@@ -3337,19 +3461,22 @@
       <c r="D47" s="17">
         <v>2</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="18">
+        <f>C47*D47</f>
+        <v>50</v>
+      </c>
+      <c r="F47" s="17">
         <v>5</v>
       </c>
-      <c r="F47" s="17">
-        <f t="shared" si="0"/>
+      <c r="G47" s="17">
+        <f>C47*F47</f>
         <v>125</v>
       </c>
-      <c r="G47" s="18">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>50</v>
       </c>
@@ -3359,19 +3486,22 @@
       <c r="D48" s="17">
         <v>4</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="18">
+        <f>C48*D48</f>
+        <v>200</v>
+      </c>
+      <c r="F48" s="17">
         <v>5</v>
       </c>
-      <c r="F48" s="17">
-        <f t="shared" si="0"/>
+      <c r="G48" s="17">
+        <f>C48*F48</f>
         <v>250</v>
       </c>
-      <c r="G48" s="18">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>51</v>
       </c>
@@ -3381,19 +3511,22 @@
       <c r="D49" s="17">
         <v>1</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="18">
+        <f>C49*D49</f>
+        <v>100</v>
+      </c>
+      <c r="F49" s="17">
         <v>5</v>
       </c>
-      <c r="F49" s="17">
-        <f t="shared" si="0"/>
+      <c r="G49" s="17">
+        <f>C49*F49</f>
         <v>500</v>
       </c>
-      <c r="G49" s="18">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>52</v>
       </c>
@@ -3403,19 +3536,22 @@
       <c r="D50" s="17">
         <v>1</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="18">
+        <f>C50*D50</f>
+        <v>50</v>
+      </c>
+      <c r="F50" s="17">
         <v>7</v>
       </c>
-      <c r="F50" s="17">
-        <f t="shared" si="0"/>
+      <c r="G50" s="17">
+        <f>C50*F50</f>
         <v>350</v>
       </c>
-      <c r="G50" s="18">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>53</v>
       </c>
@@ -3425,19 +3561,22 @@
       <c r="D51" s="17">
         <v>1</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="18">
+        <f>C51*D51</f>
+        <v>25</v>
+      </c>
+      <c r="F51" s="17">
         <v>10</v>
       </c>
-      <c r="F51" s="17">
-        <f t="shared" si="0"/>
+      <c r="G51" s="17">
+        <f>C51*F51</f>
         <v>250</v>
       </c>
-      <c r="G51" s="18">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>74</v>
       </c>
@@ -3447,19 +3586,22 @@
       <c r="D52" s="7">
         <v>3</v>
       </c>
-      <c r="E52" s="7">
-        <v>1</v>
+      <c r="E52" s="11">
+        <f>C52*D52</f>
+        <v>600</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <f>C52*F52</f>
         <v>200</v>
       </c>
-      <c r="G52" s="11">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>75</v>
       </c>
@@ -3469,19 +3611,22 @@
       <c r="D53" s="7">
         <v>3</v>
       </c>
-      <c r="E53" s="7">
-        <v>1</v>
+      <c r="E53" s="11">
+        <f>C53*D53</f>
+        <v>600</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="7">
+        <f>C53*F53</f>
         <v>200</v>
       </c>
-      <c r="G53" s="11">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>76</v>
       </c>
@@ -3491,19 +3636,22 @@
       <c r="D54" s="7">
         <v>3</v>
       </c>
-      <c r="E54" s="7">
-        <v>1</v>
+      <c r="E54" s="11">
+        <f>C54*D54</f>
+        <v>600</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="7">
+        <f>C54*F54</f>
         <v>200</v>
       </c>
-      <c r="G54" s="11">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>77</v>
       </c>
@@ -3513,19 +3661,22 @@
       <c r="D55" s="7">
         <v>3</v>
       </c>
-      <c r="E55" s="7">
-        <v>1</v>
+      <c r="E55" s="11">
+        <f>C55*D55</f>
+        <v>600</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="7">
+        <f>C55*F55</f>
         <v>200</v>
       </c>
-      <c r="G55" s="11">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>78</v>
       </c>
@@ -3535,19 +3686,22 @@
       <c r="D56" s="7">
         <v>10</v>
       </c>
-      <c r="E56" s="7">
-        <v>1</v>
+      <c r="E56" s="11">
+        <f>C56*D56</f>
+        <v>2000</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <f>C56*F56</f>
         <v>200</v>
       </c>
-      <c r="G56" s="11">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>79</v>
       </c>
@@ -3557,19 +3711,22 @@
       <c r="D57" s="7">
         <v>4</v>
       </c>
-      <c r="E57" s="7">
-        <v>1</v>
+      <c r="E57" s="11">
+        <f>C57*D57</f>
+        <v>800</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="7">
+        <f>C57*F57</f>
         <v>200</v>
       </c>
-      <c r="G57" s="11">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>80</v>
       </c>
@@ -3579,19 +3736,22 @@
       <c r="D58" s="7">
         <v>6</v>
       </c>
-      <c r="E58" s="7">
-        <v>1</v>
+      <c r="E58" s="11">
+        <f>C58*D58</f>
+        <v>1200</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="7">
+        <f>C58*F58</f>
         <v>200</v>
       </c>
-      <c r="G58" s="11">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>81</v>
       </c>
@@ -3601,19 +3761,22 @@
       <c r="D59" s="17">
         <v>2</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="18">
+        <f>C59*D59</f>
+        <v>10</v>
+      </c>
+      <c r="F59" s="17">
         <v>5</v>
       </c>
-      <c r="F59" s="17">
-        <f t="shared" si="0"/>
+      <c r="G59" s="17">
+        <f>C59*F59</f>
         <v>25</v>
       </c>
-      <c r="G59" s="18">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>58</v>
       </c>
@@ -3623,19 +3786,22 @@
       <c r="D60" s="17">
         <v>1</v>
       </c>
-      <c r="E60" s="17">
-        <v>1</v>
+      <c r="E60" s="18">
+        <f>C60*D60</f>
+        <v>500</v>
       </c>
       <c r="F60" s="17">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="17">
+        <f>C60*F60</f>
         <v>500</v>
       </c>
-      <c r="G60" s="18">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>59</v>
       </c>
@@ -3645,19 +3811,22 @@
       <c r="D61" s="17">
         <v>1</v>
       </c>
-      <c r="E61" s="17">
-        <v>1</v>
+      <c r="E61" s="18">
+        <f>C61*D61</f>
+        <v>500</v>
       </c>
       <c r="F61" s="17">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="17">
+        <f>C61*F61</f>
         <v>500</v>
       </c>
-      <c r="G61" s="18">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
         <v>60</v>
       </c>
@@ -3667,19 +3836,22 @@
       <c r="D62" s="17">
         <v>1</v>
       </c>
-      <c r="E62" s="17">
-        <v>1</v>
+      <c r="E62" s="18">
+        <f>C62*D62</f>
+        <v>500</v>
       </c>
       <c r="F62" s="17">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="17">
+        <f>C62*F62</f>
         <v>500</v>
       </c>
-      <c r="G62" s="18">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>82</v>
       </c>
@@ -3689,19 +3861,22 @@
       <c r="D63" s="7">
         <v>4</v>
       </c>
-      <c r="E63" s="7">
-        <v>1</v>
+      <c r="E63" s="11">
+        <f>C63*D63</f>
+        <v>2000</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="7">
+        <f>C63*F63</f>
         <v>500</v>
       </c>
-      <c r="G63" s="11">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>54</v>
       </c>
@@ -3711,19 +3886,22 @@
       <c r="D64" s="7">
         <v>2</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="11">
+        <f>C64*D64</f>
+        <v>500</v>
+      </c>
+      <c r="F64" s="7">
         <v>2</v>
       </c>
-      <c r="F64" s="7">
-        <f t="shared" si="0"/>
+      <c r="G64" s="7">
+        <f>C64*F64</f>
         <v>500</v>
       </c>
-      <c r="G64" s="11">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>61</v>
       </c>
@@ -3733,19 +3911,22 @@
       <c r="D65" s="7">
         <v>2</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="11">
+        <f>C65*D65</f>
+        <v>4</v>
+      </c>
+      <c r="F65" s="7">
         <v>200</v>
       </c>
-      <c r="F65" s="7">
-        <f t="shared" si="0"/>
+      <c r="G65" s="7">
+        <f>C65*F65</f>
         <v>400</v>
       </c>
-      <c r="G65" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>62</v>
       </c>
@@ -3755,19 +3936,22 @@
       <c r="D66" s="7">
         <v>1</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="11">
+        <f>C66*D66</f>
+        <v>5</v>
+      </c>
+      <c r="F66" s="7">
         <v>20</v>
       </c>
-      <c r="F66" s="7">
-        <f t="shared" si="0"/>
+      <c r="G66" s="7">
+        <f>C66*F66</f>
         <v>100</v>
       </c>
-      <c r="G66" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>83</v>
       </c>
@@ -3777,19 +3961,22 @@
       <c r="D67" s="7">
         <v>5</v>
       </c>
-      <c r="E67" s="7">
-        <v>1</v>
+      <c r="E67" s="11">
+        <f>C67*D67</f>
+        <v>200</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G67" s="7">
+        <f>C67*F67</f>
         <v>40</v>
       </c>
-      <c r="G67" s="11">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
         <v>84</v>
       </c>
@@ -3799,19 +3986,22 @@
       <c r="D68" s="17">
         <v>4</v>
       </c>
-      <c r="E68" s="17">
-        <v>1</v>
+      <c r="E68" s="18">
+        <f>C68*D68</f>
+        <v>800</v>
       </c>
       <c r="F68" s="17">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G68" s="17">
+        <f>C68*F68</f>
         <v>200</v>
       </c>
-      <c r="G68" s="18">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
         <v>85</v>
       </c>
@@ -3821,19 +4011,22 @@
       <c r="D69" s="17">
         <v>4</v>
       </c>
-      <c r="E69" s="17">
-        <v>1</v>
+      <c r="E69" s="18">
+        <f>C69*D69</f>
+        <v>800</v>
       </c>
       <c r="F69" s="17">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G69" s="17">
+        <f>C69*F69</f>
         <v>200</v>
       </c>
-      <c r="G69" s="18">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>86</v>
       </c>
@@ -3843,19 +4036,22 @@
       <c r="D70" s="7">
         <v>1</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="11">
+        <f>C70*D70</f>
+        <v>5</v>
+      </c>
+      <c r="F70" s="7">
         <v>15</v>
       </c>
-      <c r="F70" s="7">
-        <f t="shared" si="0"/>
+      <c r="G70" s="7">
+        <f>C70*F70</f>
         <v>75</v>
       </c>
-      <c r="G70" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
         <v>87</v>
       </c>
@@ -3865,19 +4061,22 @@
       <c r="D71" s="17">
         <v>1</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="18">
+        <f>C71*D71</f>
+        <v>5</v>
+      </c>
+      <c r="F71" s="17">
         <v>20</v>
       </c>
-      <c r="F71" s="17">
-        <f t="shared" si="0"/>
+      <c r="G71" s="17">
+        <f>C71*F71</f>
         <v>100</v>
       </c>
-      <c r="G71" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H71" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="19" t="s">
         <v>88</v>
       </c>
@@ -3887,38 +4086,43 @@
       <c r="D72" s="20">
         <v>1</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="21">
+        <f>C72*D72</f>
+        <v>5</v>
+      </c>
+      <c r="F72" s="20">
         <v>25</v>
       </c>
-      <c r="F72" s="20">
-        <f t="shared" si="0"/>
+      <c r="G72" s="20">
+        <f>C72*F72</f>
         <v>125</v>
       </c>
-      <c r="G72" s="21">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E73" s="1" t="s">
+      <c r="H72" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F73" s="1">
-        <f>SUM(F26:F72)</f>
+      <c r="G73" s="1">
+        <f>SUM(G26:G72)</f>
         <v>31615</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E74" s="26" t="s">
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F74" s="26">
-        <f>SUM(F27,F33,F60,F61,F62,F71,F72,F44,F46,F47,F48,F59,F51,F68,F69,F43,F50,F49)</f>
+      <c r="G74" s="26">
+        <f>SUM(G27,G33,G60,G61,G62,G71,G72,G44,G46,G47,G48,G59,G51,G68,G69,G43,G50,G49)</f>
         <v>6775</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>92</v>
       </c>
@@ -3926,7 +4130,7 @@
         <v>4905</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
         <v>94</v>
       </c>
@@ -3934,24 +4138,32 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="31">
-        <f>F73+C77-C76</f>
+        <f>G73+C77-C76</f>
         <v>34270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
+  <conditionalFormatting sqref="H26:H72">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Anniv.xlsx
+++ b/Anniv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CTables\Wartune\Wartune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1844DFBA-3A0F-4EA1-9AA7-AE9276A070B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44DF84F-F465-4632-86F3-588F39814CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19318" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -709,14 +709,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -734,6 +737,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -757,33 +769,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1147,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6400203-2BDE-4802-8A79-E79C2E94A689}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1158,43 +1148,43 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="2:10" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
@@ -1221,43 +1211,43 @@
       <c r="J6" s="37"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="2:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
@@ -1271,56 +1261,56 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="2:10" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34"/>
@@ -1334,56 +1324,56 @@
       <c r="J15" s="34"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="34"/>
@@ -1443,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1463,11 +1453,11 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
       <c r="H1" s="23" t="s">
         <v>105</v>
       </c>
@@ -1857,14 +1847,14 @@
         <v>1</v>
       </c>
       <c r="E26" s="11">
-        <f>C26*D26</f>
+        <f t="shared" ref="E26:E51" si="0">C26*D26</f>
         <v>1</v>
       </c>
       <c r="F26" s="7">
         <v>100</v>
       </c>
       <c r="G26" s="7">
-        <f>C26*F26</f>
+        <f t="shared" ref="G26:G51" si="1">C26*F26</f>
         <v>100</v>
       </c>
     </row>
@@ -1879,14 +1869,14 @@
         <v>1</v>
       </c>
       <c r="E27" s="18">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="17">
         <v>100</v>
       </c>
       <c r="G27" s="17">
-        <f>C27*F27</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1901,14 +1891,14 @@
         <v>20</v>
       </c>
       <c r="E28" s="11">
-        <f>C28*D28</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="7">
-        <f>C28*F28</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
@@ -1923,14 +1913,14 @@
         <v>40</v>
       </c>
       <c r="E29" s="11">
-        <f>C29*D29</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <f>C29*F29</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
@@ -1945,14 +1935,14 @@
         <v>20</v>
       </c>
       <c r="E30" s="11">
-        <f>C30*D30</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <f>C30*F30</f>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -1967,14 +1957,14 @@
         <v>20</v>
       </c>
       <c r="E31" s="11">
-        <f>C31*D31</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <f>C31*F31</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -1989,14 +1979,14 @@
         <v>20</v>
       </c>
       <c r="E32" s="11">
-        <f>C32*D32</f>
+        <f t="shared" si="0"/>
         <v>40000</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="7">
-        <f>C32*F32</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
@@ -2011,14 +2001,14 @@
         <v>10</v>
       </c>
       <c r="E33" s="11">
-        <f>C33*D33</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="7">
-        <f>C33*F33</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
@@ -2033,14 +2023,14 @@
         <v>4</v>
       </c>
       <c r="E34" s="11">
-        <f>C34*D34</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
       <c r="G34" s="7">
-        <f>C34*F34</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
@@ -2055,14 +2045,14 @@
         <v>4</v>
       </c>
       <c r="E35" s="18">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="F35" s="17">
         <v>5</v>
       </c>
       <c r="G35" s="17">
-        <f>C35*F35</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
@@ -2077,14 +2067,14 @@
         <v>2</v>
       </c>
       <c r="E36" s="11">
-        <f>C36*D36</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F36" s="7">
         <v>5</v>
       </c>
       <c r="G36" s="7">
-        <f>C36*F36</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
@@ -2099,14 +2089,14 @@
         <v>2</v>
       </c>
       <c r="E37" s="18">
-        <f>C37*D37</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F37" s="17">
         <v>25</v>
       </c>
       <c r="G37" s="17">
-        <f>C37*F37</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -2121,14 +2111,14 @@
         <v>2</v>
       </c>
       <c r="E38" s="18">
-        <f>C38*D38</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F38" s="17">
         <v>5</v>
       </c>
       <c r="G38" s="17">
-        <f>C38*F38</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
@@ -2143,14 +2133,14 @@
         <v>4</v>
       </c>
       <c r="E39" s="18">
-        <f>C39*D39</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="F39" s="17">
         <v>5</v>
       </c>
       <c r="G39" s="17">
-        <f>C39*F39</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
@@ -2165,14 +2155,14 @@
         <v>1</v>
       </c>
       <c r="E40" s="11">
-        <f>C40*D40</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F40" s="7">
         <v>5</v>
       </c>
       <c r="G40" s="7">
-        <f>C40*F40</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -2187,14 +2177,14 @@
         <v>1</v>
       </c>
       <c r="E41" s="18">
-        <f>C41*D41</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F41" s="17">
         <v>7</v>
       </c>
       <c r="G41" s="17">
-        <f>C41*F41</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
     </row>
@@ -2209,14 +2199,14 @@
         <v>1</v>
       </c>
       <c r="E42" s="18">
-        <f>C42*D42</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F42" s="17">
         <v>10</v>
       </c>
       <c r="G42" s="17">
-        <f>C42*F42</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
@@ -2231,14 +2221,14 @@
         <v>2</v>
       </c>
       <c r="E43" s="11">
-        <f>C43*D43</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F43" s="7">
         <v>2</v>
       </c>
       <c r="G43" s="7">
-        <f>C43*F43</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -2253,14 +2243,14 @@
         <v>2</v>
       </c>
       <c r="E44" s="18">
-        <f>C44*D44</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F44" s="17">
         <v>200</v>
       </c>
       <c r="G44" s="17">
-        <f>C44*F44</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
@@ -2275,14 +2265,14 @@
         <v>1</v>
       </c>
       <c r="E45" s="18">
-        <f>C45*D45</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F45" s="17">
         <v>20</v>
       </c>
       <c r="G45" s="17">
-        <f>C45*F45</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2297,14 +2287,14 @@
         <v>1</v>
       </c>
       <c r="E46" s="18">
-        <f>C46*D46</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F46" s="17">
         <v>30</v>
       </c>
       <c r="G46" s="17">
-        <f>C46*F46</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -2319,14 +2309,14 @@
         <v>1</v>
       </c>
       <c r="E47" s="18">
-        <f>C47*D47</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F47" s="17">
         <v>40</v>
       </c>
       <c r="G47" s="17">
-        <f>C47*F47</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
@@ -2341,14 +2331,14 @@
         <v>1</v>
       </c>
       <c r="E48" s="18">
-        <f>C48*D48</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F48" s="17">
         <v>50</v>
       </c>
       <c r="G48" s="17">
-        <f>C48*F48</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
@@ -2363,14 +2353,14 @@
         <v>1</v>
       </c>
       <c r="E49" s="18">
-        <f>C49*D49</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F49" s="17">
         <v>1</v>
       </c>
       <c r="G49" s="17">
-        <f>C49*F49</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -2385,14 +2375,14 @@
         <v>1</v>
       </c>
       <c r="E50" s="18">
-        <f>C50*D50</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F50" s="17">
         <v>1</v>
       </c>
       <c r="G50" s="17">
-        <f>C50*F50</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -2407,14 +2397,14 @@
         <v>1</v>
       </c>
       <c r="E51" s="21">
-        <f>C51*D51</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F51" s="20">
         <v>1</v>
       </c>
       <c r="G51" s="20">
-        <f>C51*F51</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -2449,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A099BD42-EDC1-43FC-957F-85D4BF1921DE}">
   <dimension ref="B1:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74:G74"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2469,11 +2459,11 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
       <c r="I1" s="23" t="s">
         <v>105</v>
       </c>
@@ -2830,10 +2820,10 @@
       <c r="D18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="47"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -2845,10 +2835,10 @@
       <c r="D19" s="11">
         <v>10</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="47"/>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
@@ -2860,10 +2850,10 @@
       <c r="D20" s="11">
         <v>15</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="51"/>
     </row>
     <row r="21" spans="2:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
@@ -2875,10 +2865,10 @@
       <c r="D21" s="14">
         <v>25</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="47"/>
+      <c r="J21" s="51"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -2888,10 +2878,10 @@
         <f>14*60</f>
         <v>840</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="47"/>
+      <c r="J22" s="51"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
@@ -2937,17 +2927,17 @@
         <v>1</v>
       </c>
       <c r="E26" s="11">
-        <f>C26*D26</f>
+        <f t="shared" ref="E26:E72" si="0">C26*D26</f>
         <v>1</v>
       </c>
       <c r="F26" s="7">
         <v>100</v>
       </c>
       <c r="G26" s="7">
-        <f>C26*F26</f>
+        <f t="shared" ref="G26:G72" si="1">C26*F26</f>
         <v>100</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="38">
         <v>1</v>
       </c>
     </row>
@@ -2962,17 +2952,17 @@
         <v>1</v>
       </c>
       <c r="E27" s="18">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="17">
         <v>100</v>
       </c>
       <c r="G27" s="17">
-        <f>C27*F27</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2987,17 +2977,17 @@
         <v>20</v>
       </c>
       <c r="E28" s="11">
-        <f>C28*D28</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="7">
-        <f>C28*F28</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3012,17 +3002,17 @@
         <v>20</v>
       </c>
       <c r="E29" s="11">
-        <f>C29*D29</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <f>C29*F29</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3037,17 +3027,17 @@
         <v>20</v>
       </c>
       <c r="E30" s="11">
-        <f>C30*D30</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <f>C30*F30</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3062,17 +3052,17 @@
         <v>10</v>
       </c>
       <c r="E31" s="11">
-        <f>C31*D31</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <f>C31*F31</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3087,17 +3077,17 @@
         <v>10</v>
       </c>
       <c r="E32" s="11">
-        <f>C32*D32</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="7">
-        <f>C32*F32</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3112,17 +3102,17 @@
         <v>20</v>
       </c>
       <c r="E33" s="18">
-        <f>C33*D33</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="F33" s="17">
         <v>1</v>
       </c>
       <c r="G33" s="17">
-        <f>C33*F33</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3137,17 +3127,17 @@
         <v>2</v>
       </c>
       <c r="E34" s="11">
-        <f>C34*D34</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
       <c r="G34" s="7">
-        <f>C34*F34</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H34" s="54">
+      <c r="H34" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3162,17 +3152,17 @@
         <v>6</v>
       </c>
       <c r="E35" s="11">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
       </c>
       <c r="G35" s="7">
-        <f>C35*F35</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3187,17 +3177,17 @@
         <v>6</v>
       </c>
       <c r="E36" s="11">
-        <f>C36*D36</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
       <c r="G36" s="7">
-        <f>C36*F36</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H36" s="54">
+      <c r="H36" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3212,17 +3202,17 @@
         <v>20</v>
       </c>
       <c r="E37" s="11">
-        <f>C37*D37</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
       </c>
       <c r="G37" s="7">
-        <f>C37*F37</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H37" s="54">
+      <c r="H37" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3237,17 +3227,17 @@
         <v>40</v>
       </c>
       <c r="E38" s="11">
-        <f>C38*D38</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
       </c>
       <c r="G38" s="7">
-        <f>C38*F38</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H38" s="54">
+      <c r="H38" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3262,17 +3252,17 @@
         <v>20</v>
       </c>
       <c r="E39" s="11">
-        <f>C39*D39</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
       </c>
       <c r="G39" s="7">
-        <f>C39*F39</f>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
-      <c r="H39" s="54">
+      <c r="H39" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3287,17 +3277,17 @@
         <v>20</v>
       </c>
       <c r="E40" s="11">
-        <f>C40*D40</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="7">
-        <f>C40*F40</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H40" s="54">
+      <c r="H40" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3312,17 +3302,17 @@
         <v>20</v>
       </c>
       <c r="E41" s="11">
-        <f>C41*D41</f>
+        <f t="shared" si="0"/>
         <v>40000</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="7">
-        <f>C41*F41</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="H41" s="54">
+      <c r="H41" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3337,17 +3327,17 @@
         <v>10</v>
       </c>
       <c r="E42" s="11">
-        <f>C42*D42</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
       </c>
       <c r="G42" s="7">
-        <f>C42*F42</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H42" s="54">
+      <c r="H42" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3362,17 +3352,17 @@
         <v>4</v>
       </c>
       <c r="E43" s="18">
-        <f>C43*D43</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="F43" s="17">
         <v>1</v>
       </c>
       <c r="G43" s="17">
-        <f>C43*F43</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H43" s="55">
+      <c r="H43" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3387,17 +3377,17 @@
         <v>4</v>
       </c>
       <c r="E44" s="18">
-        <f>C44*D44</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="F44" s="17">
         <v>5</v>
       </c>
       <c r="G44" s="17">
-        <f>C44*F44</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H44" s="55">
+      <c r="H44" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3412,17 +3402,17 @@
         <v>2</v>
       </c>
       <c r="E45" s="11">
-        <f>C45*D45</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F45" s="7">
         <v>5</v>
       </c>
       <c r="G45" s="7">
-        <f>C45*F45</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H45" s="54">
+      <c r="H45" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3437,17 +3427,17 @@
         <v>2</v>
       </c>
       <c r="E46" s="18">
-        <f>C46*D46</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F46" s="17">
         <v>25</v>
       </c>
       <c r="G46" s="17">
-        <f>C46*F46</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H46" s="55">
+      <c r="H46" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3462,17 +3452,17 @@
         <v>2</v>
       </c>
       <c r="E47" s="18">
-        <f>C47*D47</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F47" s="17">
         <v>5</v>
       </c>
       <c r="G47" s="17">
-        <f>C47*F47</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="H47" s="55">
+      <c r="H47" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3487,17 +3477,17 @@
         <v>4</v>
       </c>
       <c r="E48" s="18">
-        <f>C48*D48</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="F48" s="17">
         <v>5</v>
       </c>
       <c r="G48" s="17">
-        <f>C48*F48</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H48" s="55">
+      <c r="H48" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3512,17 +3502,17 @@
         <v>1</v>
       </c>
       <c r="E49" s="18">
-        <f>C49*D49</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F49" s="17">
         <v>5</v>
       </c>
       <c r="G49" s="17">
-        <f>C49*F49</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H49" s="55">
+      <c r="H49" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3537,17 +3527,17 @@
         <v>1</v>
       </c>
       <c r="E50" s="18">
-        <f>C50*D50</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F50" s="17">
         <v>7</v>
       </c>
       <c r="G50" s="17">
-        <f>C50*F50</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H50" s="55">
+      <c r="H50" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3562,17 +3552,17 @@
         <v>1</v>
       </c>
       <c r="E51" s="18">
-        <f>C51*D51</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F51" s="17">
         <v>10</v>
       </c>
       <c r="G51" s="17">
-        <f>C51*F51</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H51" s="55">
+      <c r="H51" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3587,17 +3577,17 @@
         <v>3</v>
       </c>
       <c r="E52" s="11">
-        <f>C52*D52</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="7">
-        <f>C52*F52</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H52" s="56">
+      <c r="H52" s="40">
         <v>1</v>
       </c>
     </row>
@@ -3612,17 +3602,17 @@
         <v>3</v>
       </c>
       <c r="E53" s="11">
-        <f>C53*D53</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <f>C53*F53</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H53" s="54">
+      <c r="H53" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3637,17 +3627,17 @@
         <v>3</v>
       </c>
       <c r="E54" s="11">
-        <f>C54*D54</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <f>C54*F54</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H54" s="54">
+      <c r="H54" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3662,17 +3652,17 @@
         <v>3</v>
       </c>
       <c r="E55" s="11">
-        <f>C55*D55</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <f>C55*F55</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H55" s="54">
+      <c r="H55" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3687,17 +3677,17 @@
         <v>10</v>
       </c>
       <c r="E56" s="11">
-        <f>C56*D56</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <f>C56*F56</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H56" s="54">
+      <c r="H56" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3712,17 +3702,17 @@
         <v>4</v>
       </c>
       <c r="E57" s="11">
-        <f>C57*D57</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <f>C57*F57</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H57" s="54">
+      <c r="H57" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3737,17 +3727,17 @@
         <v>6</v>
       </c>
       <c r="E58" s="11">
-        <f>C58*D58</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <f>C58*F58</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H58" s="54">
+      <c r="H58" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3762,17 +3752,17 @@
         <v>2</v>
       </c>
       <c r="E59" s="18">
-        <f>C59*D59</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F59" s="17">
         <v>5</v>
       </c>
       <c r="G59" s="17">
-        <f>C59*F59</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H59" s="55">
+      <c r="H59" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3787,17 +3777,17 @@
         <v>1</v>
       </c>
       <c r="E60" s="18">
-        <f>C60*D60</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F60" s="17">
         <v>1</v>
       </c>
       <c r="G60" s="17">
-        <f>C60*F60</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H60" s="55">
+      <c r="H60" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3812,17 +3802,17 @@
         <v>1</v>
       </c>
       <c r="E61" s="18">
-        <f>C61*D61</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F61" s="17">
         <v>1</v>
       </c>
       <c r="G61" s="17">
-        <f>C61*F61</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H61" s="55">
+      <c r="H61" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3837,17 +3827,17 @@
         <v>1</v>
       </c>
       <c r="E62" s="18">
-        <f>C62*D62</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F62" s="17">
         <v>1</v>
       </c>
       <c r="G62" s="17">
-        <f>C62*F62</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H62" s="55">
+      <c r="H62" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3862,17 +3852,17 @@
         <v>4</v>
       </c>
       <c r="E63" s="11">
-        <f>C63*D63</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="F63" s="7">
         <v>1</v>
       </c>
       <c r="G63" s="7">
-        <f>C63*F63</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H63" s="54">
+      <c r="H63" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3887,17 +3877,17 @@
         <v>2</v>
       </c>
       <c r="E64" s="11">
-        <f>C64*D64</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F64" s="7">
         <v>2</v>
       </c>
       <c r="G64" s="7">
-        <f>C64*F64</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H64" s="54">
+      <c r="H64" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3912,17 +3902,17 @@
         <v>2</v>
       </c>
       <c r="E65" s="11">
-        <f>C65*D65</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F65" s="7">
         <v>200</v>
       </c>
       <c r="G65" s="7">
-        <f>C65*F65</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H65" s="54">
+      <c r="H65" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3937,17 +3927,17 @@
         <v>1</v>
       </c>
       <c r="E66" s="11">
-        <f>C66*D66</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F66" s="7">
         <v>20</v>
       </c>
       <c r="G66" s="7">
-        <f>C66*F66</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H66" s="54">
+      <c r="H66" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3962,17 +3952,17 @@
         <v>5</v>
       </c>
       <c r="E67" s="11">
-        <f>C67*D67</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="F67" s="7">
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <f>C67*F67</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H67" s="54">
+      <c r="H67" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3987,17 +3977,17 @@
         <v>4</v>
       </c>
       <c r="E68" s="18">
-        <f>C68*D68</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="F68" s="17">
         <v>1</v>
       </c>
       <c r="G68" s="17">
-        <f>C68*F68</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H68" s="55">
+      <c r="H68" s="39">
         <v>1</v>
       </c>
     </row>
@@ -4012,17 +4002,17 @@
         <v>4</v>
       </c>
       <c r="E69" s="18">
-        <f>C69*D69</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="F69" s="17">
         <v>1</v>
       </c>
       <c r="G69" s="17">
-        <f>C69*F69</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H69" s="55">
+      <c r="H69" s="39">
         <v>1</v>
       </c>
     </row>
@@ -4037,17 +4027,17 @@
         <v>1</v>
       </c>
       <c r="E70" s="11">
-        <f>C70*D70</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F70" s="7">
         <v>15</v>
       </c>
       <c r="G70" s="7">
-        <f>C70*F70</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H70" s="54">
+      <c r="H70" s="38">
         <v>1</v>
       </c>
     </row>
@@ -4062,17 +4052,17 @@
         <v>1</v>
       </c>
       <c r="E71" s="18">
-        <f>C71*D71</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F71" s="17">
         <v>20</v>
       </c>
       <c r="G71" s="17">
-        <f>C71*F71</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H71" s="55">
+      <c r="H71" s="39">
         <v>1</v>
       </c>
     </row>
@@ -4087,17 +4077,17 @@
         <v>1</v>
       </c>
       <c r="E72" s="21">
-        <f>C72*D72</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F72" s="20">
         <v>25</v>
       </c>
       <c r="G72" s="20">
-        <f>C72*F72</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="H72" s="57">
+      <c r="H72" s="41">
         <v>1</v>
       </c>
     </row>
@@ -4157,10 +4147,10 @@
     <mergeCell ref="I21:J21"/>
   </mergeCells>
   <conditionalFormatting sqref="H26:H72">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
